--- a/doc/04_機能一覧_mippy.xlsx
+++ b/doc/04_機能一覧_mippy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\D-1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CF2F25-3A50-4C95-A3FE-62570441AF67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A1941B-AAB9-49BC-80E4-AC42E6ED54CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="90">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -609,6 +609,128 @@
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食事記録を追加で行う</t>
+    <rPh sb="0" eb="4">
+      <t>ショクジキロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食事の追加入力</t>
+    <rPh sb="0" eb="2">
+      <t>ショクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品目を登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに品目を登録する</t>
+    <rPh sb="7" eb="9">
+      <t>ヒンモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>折れ線グラフを表示する</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カロリーの折れ線グラフを表示する</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンメニューで年月を選択</t>
+    <rPh sb="10" eb="12">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを表示する</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種データを一覧で表示する</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィールに飛ぶ</t>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面に移動する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>j</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -656,7 +778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -731,13 +853,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,9 +899,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -777,17 +911,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1152,8 +1286,8 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
@@ -1163,22 +1297,22 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1254,44 +1388,44 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>3</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>4</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1360,48 +1494,48 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>8</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>9</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="8"/>
+      <c r="H16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1448,90 +1582,90 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>12</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12" t="s">
+      <c r="G19" s="10"/>
+      <c r="H19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>13</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="8"/>
+      <c r="H20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>14</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>15</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="9" t="s">
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1562,7 +1696,7 @@
         <v>48</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="2"/>
@@ -1678,44 +1812,44 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>23</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="16" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>24</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
@@ -1723,7 +1857,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F32" s="2"/>
@@ -1737,7 +1871,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F33" s="2"/>
@@ -1751,7 +1885,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F34" s="2"/>
@@ -1760,43 +1894,43 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>28</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="16" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>29</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10" t="s">
+      <c r="G36" s="8"/>
+      <c r="H36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="9"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="14">
+      <c r="B37" s="2">
         <v>30</v>
       </c>
       <c r="C37" s="2"/>
@@ -1832,7 +1966,7 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="14">
+      <c r="B39" s="2">
         <v>32</v>
       </c>
       <c r="C39" s="2"/>
@@ -1869,104 +2003,156 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="14">
+    <row r="41" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
         <v>34</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="2">
+      <c r="C41" s="10"/>
+      <c r="D41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="8">
         <v>35</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="14">
+      <c r="C42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
         <v>36</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="2">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="14">
         <v>37</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="2"/>
+      <c r="C44" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="14">
+      <c r="B45" s="2">
         <v>38</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="2"/>
+      <c r="H45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
         <v>39</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="14">
+    <row r="47" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="10">
         <v>40</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="2">
+      <c r="C47" s="10"/>
+      <c r="D47" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="8">
         <v>41</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="2"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="8"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="14">
+      <c r="B49" s="2">
         <v>42</v>
       </c>
       <c r="C49" s="2"/>
@@ -1990,7 +2176,7 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="14">
+      <c r="B51" s="2">
         <v>44</v>
       </c>
       <c r="C51" s="2"/>
@@ -2014,7 +2200,7 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="14">
+      <c r="B53" s="2">
         <v>46</v>
       </c>
       <c r="C53" s="2"/>
@@ -2038,7 +2224,7 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="14">
+      <c r="B55" s="2">
         <v>48</v>
       </c>
       <c r="C55" s="2"/>
@@ -2062,7 +2248,7 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="14">
+      <c r="B57" s="2">
         <v>50</v>
       </c>
       <c r="C57" s="2"/>
@@ -2086,7 +2272,7 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="14">
+      <c r="B59" s="2">
         <v>52</v>
       </c>
       <c r="C59" s="2"/>
@@ -2110,7 +2296,7 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="14">
+      <c r="B61" s="2">
         <v>54</v>
       </c>
       <c r="C61" s="2"/>
@@ -2134,7 +2320,7 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="14">
+      <c r="B63" s="2">
         <v>56</v>
       </c>
       <c r="C63" s="2"/>
@@ -2158,7 +2344,7 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="14">
+      <c r="B65" s="2">
         <v>58</v>
       </c>
       <c r="C65" s="2"/>
@@ -2182,7 +2368,7 @@
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="14">
+      <c r="B67" s="2">
         <v>60</v>
       </c>
       <c r="C67" s="2"/>
@@ -2206,7 +2392,7 @@
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="14">
+      <c r="B69" s="2">
         <v>62</v>
       </c>
       <c r="C69" s="2"/>
@@ -2230,7 +2416,7 @@
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="14">
+      <c r="B71" s="2">
         <v>64</v>
       </c>
       <c r="C71" s="2"/>
@@ -2254,7 +2440,7 @@
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="14">
+      <c r="B73" s="2">
         <v>66</v>
       </c>
       <c r="C73" s="2"/>
@@ -2278,7 +2464,7 @@
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="14">
+      <c r="B75" s="2">
         <v>68</v>
       </c>
       <c r="C75" s="2"/>
@@ -2302,7 +2488,7 @@
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="14">
+      <c r="B77" s="2">
         <v>70</v>
       </c>
       <c r="C77" s="2"/>
@@ -2326,7 +2512,7 @@
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="14">
+      <c r="B79" s="2">
         <v>72</v>
       </c>
       <c r="C79" s="2"/>
@@ -2350,7 +2536,7 @@
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="14">
+      <c r="B81" s="2">
         <v>74</v>
       </c>
       <c r="C81" s="2"/>
@@ -2374,7 +2560,7 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="14">
+      <c r="B83" s="2">
         <v>76</v>
       </c>
       <c r="C83" s="2"/>
@@ -2398,7 +2584,7 @@
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="14">
+      <c r="B85" s="2">
         <v>78</v>
       </c>
       <c r="C85" s="2"/>
@@ -2422,7 +2608,7 @@
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" s="14">
+      <c r="B87" s="2">
         <v>80</v>
       </c>
       <c r="C87" s="2"/>
@@ -2446,7 +2632,7 @@
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" s="14">
+      <c r="B89" s="2">
         <v>82</v>
       </c>
       <c r="C89" s="2"/>
@@ -2470,7 +2656,7 @@
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="14">
+      <c r="B91" s="2">
         <v>84</v>
       </c>
       <c r="C91" s="2"/>
@@ -2494,7 +2680,7 @@
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" s="14">
+      <c r="B93" s="2">
         <v>86</v>
       </c>
       <c r="C93" s="2"/>
@@ -2518,7 +2704,7 @@
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" s="14">
+      <c r="B95" s="2">
         <v>88</v>
       </c>
       <c r="C95" s="2"/>
@@ -2542,7 +2728,7 @@
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B97" s="14">
+      <c r="B97" s="2">
         <v>90</v>
       </c>
       <c r="C97" s="2"/>
@@ -2554,10 +2740,10 @@
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="9"/>
+      <c r="B98" s="8"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="13"/>
+      <c r="B99" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/04_機能一覧_mippy.xlsx
+++ b/doc/04_機能一覧_mippy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\D-1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A1941B-AAB9-49BC-80E4-AC42E6ED54CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272C45D5-094F-4C78-9072-EEF53BB04F14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="96">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -730,7 +730,70 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>j</t>
+    <t>１か月のカレンダーを表示する</t>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示しているカレンダーの前後を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバターの近くにテキストを表示する</t>
+    <rPh sb="5" eb="6">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報変更</t>
+    <rPh sb="0" eb="4">
+      <t>コジンジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したデータを更新する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバター表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページへ飛ぶ</t>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1263,15 +1326,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.26953125" customWidth="1"/>
     <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
     <col min="5" max="5" width="14.6328125" customWidth="1"/>
     <col min="6" max="6" width="26.26953125" customWidth="1"/>
     <col min="7" max="7" width="12.90625" customWidth="1"/>
@@ -1505,7 +1569,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="11" t="s">
@@ -1664,7 +1728,9 @@
         <v>44</v>
       </c>
       <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="I22" s="8" t="s">
         <v>19</v>
       </c>
@@ -1682,7 +1748,9 @@
         <v>45</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="I23" s="2" t="s">
         <v>32</v>
       </c>
@@ -1846,66 +1914,104 @@
       <c r="E31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>25</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>26</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>27</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>28</v>
       </c>
       <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="D35" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="E35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="10"/>
+      <c r="H35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8">
@@ -1927,7 +2033,9 @@
       <c r="H36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="8"/>
+      <c r="I36" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
@@ -1945,7 +2053,9 @@
       <c r="H37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
@@ -1963,7 +2073,9 @@
       <c r="H38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I38" s="2"/>
+      <c r="I38" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
@@ -1981,7 +2093,9 @@
       <c r="H39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I39" s="2"/>
+      <c r="I39" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
@@ -2019,7 +2133,9 @@
       <c r="H41" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I41" s="10"/>
+      <c r="I41" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="42" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B42" s="8">
@@ -2039,7 +2155,9 @@
       <c r="H42" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="8"/>
+      <c r="I42" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="43" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
@@ -2100,7 +2218,7 @@
         <v>84</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
@@ -2119,58 +2237,78 @@
       <c r="H46" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="10">
+      <c r="I46" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
         <v>40</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="11" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="8">
+      <c r="I47" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="10">
         <v>41</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="2">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="8">
         <v>42</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="2"/>
+      <c r="C49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="8"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <v>43</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="3"/>
       <c r="I50" s="2"/>
@@ -2191,7 +2329,9 @@
       <c r="B52" s="2">
         <v>45</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>

--- a/doc/04_機能一覧_mippy.xlsx
+++ b/doc/04_機能一覧_mippy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\D-1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272C45D5-094F-4C78-9072-EEF53BB04F14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830D5FE0-4C39-416A-8A8B-C8C583C2F3D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="3140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="108">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -793,6 +793,102 @@
     <t>トップページへ飛ぶ</t>
     <rPh sb="7" eb="8">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスを更新</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードを変更</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新するときに正しいパスワードが入力されているかを判定する</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいパスワードのダブルクリック</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいパスワードの間違い入力を判定</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mippy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -841,7 +937,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -931,13 +1027,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,14 +1084,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1326,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1350,33 +1463,39 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="17">
+        <v>45084</v>
+      </c>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -2180,25 +2299,25 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <v>37</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14" t="s">
+      <c r="E44" s="13"/>
+      <c r="F44" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15" t="s">
+      <c r="G44" s="13"/>
+      <c r="H44" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I44" s="14" t="s">
-        <v>32</v>
+      <c r="I44" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
@@ -2277,7 +2396,9 @@
       <c r="H48" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I48" s="10"/>
+      <c r="I48" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="49" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B49" s="8">
@@ -2287,7 +2408,7 @@
         <v>54</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
@@ -2295,7 +2416,9 @@
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
-      <c r="I49" s="8"/>
+      <c r="I49" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
@@ -2311,93 +2434,137 @@
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="2"/>
+      <c r="I50" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
         <v>44</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="2">
+      <c r="H51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="10">
         <v>45</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="16"/>
+      <c r="D52" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="10"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="8">
+        <v>46</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="2">
-        <v>46</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="2"/>
+      <c r="D53" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>47</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I54" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>48</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="2">
+      <c r="H55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="10">
         <v>49</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="2">
+      <c r="C56" s="10"/>
+      <c r="D56" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" s="10"/>
+      <c r="H56" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="8">
         <v>50</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="2"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="8"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2">

--- a/doc/04_機能一覧_mippy.xlsx
+++ b/doc/04_機能一覧_mippy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\D-1\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830D5FE0-4C39-416A-8A8B-C8C583C2F3D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBA1C51-256D-4D74-9E88-E025484EF2D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="3140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1090,10 +1090,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1463,10 +1463,10 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
@@ -1481,21 +1481,21 @@
       <c r="H3" s="17">
         <v>45084</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -2462,7 +2462,7 @@
       <c r="B52" s="10">
         <v>45</v>
       </c>
-      <c r="C52" s="16"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="10" t="s">
         <v>48</v>
       </c>

--- a/doc/04_機能一覧_mippy.xlsx
+++ b/doc/04_機能一覧_mippy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBA1C51-256D-4D74-9E88-E025484EF2D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF65DEB-4798-44C0-A2D4-D75AD911B141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="114">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -889,6 +889,66 @@
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録確認</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーに飛ぶ</t>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーページに移動する</t>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録完了ページを表示</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規完了ページに移動</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柿崎</t>
+    <rPh sb="0" eb="2">
+      <t>カキザキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1437,22 +1497,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I99"/>
+  <dimension ref="B2:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" customWidth="1"/>
-    <col min="6" max="6" width="26.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" customWidth="1"/>
-    <col min="8" max="8" width="36.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="36.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
@@ -1487,14 +1545,18 @@
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="17">
+        <v>45092</v>
+      </c>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
@@ -1570,7 +1632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>3</v>
       </c>
@@ -1588,7 +1650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
         <v>4</v>
       </c>
@@ -1676,7 +1738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>8</v>
       </c>
@@ -1698,7 +1760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
         <v>9</v>
       </c>
@@ -1764,7 +1826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>12</v>
       </c>
@@ -1786,31 +1848,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="8">
+    <row r="20" spans="2:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>14</v>
       </c>
@@ -1819,79 +1879,85 @@
         <v>34</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="11" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
         <v>15</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="F22" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>16</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="8">
+        <v>17</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="2">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="2">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
@@ -1902,15 +1968,13 @@
       <c r="D25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="3" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>32</v>
@@ -1925,12 +1989,12 @@
         <v>48</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>52</v>
+      <c r="F26" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>32</v>
@@ -1945,14 +2009,14 @@
         <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>32</v>
@@ -1964,15 +2028,15 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>32</v>
@@ -1984,107 +2048,105 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
-        <v>23</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10" t="s">
+      <c r="I31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="10">
+        <v>25</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11" t="s">
+      <c r="G32" s="10"/>
+      <c r="H32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="8">
-        <v>24</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="I32" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="8">
+        <v>26</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="2">
-        <v>25</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="2">
-        <v>26</v>
-      </c>
-      <c r="C33" s="2"/>
       <c r="D33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="E33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2097,102 +2159,106 @@
         <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="10">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
         <v>28</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="8">
+      <c r="E35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
         <v>29</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
+        <v>30</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="8">
+        <v>31</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9" t="s">
+      <c r="G38" s="8"/>
+      <c r="H38" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="2">
-        <v>30</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="2">
-        <v>31</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2206,11 +2272,11 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>32</v>
@@ -2222,142 +2288,142 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <v>35</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="10">
-        <v>34</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="8">
-        <v>35</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>36</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="8">
+        <v>37</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="10">
+        <v>38</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I43" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="13">
-        <v>37</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="I45" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="13">
+        <v>39</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13" t="s">
+      <c r="E46" s="13"/>
+      <c r="F46" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="14" t="s">
+      <c r="G46" s="13"/>
+      <c r="H46" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="I46" s="13" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="2">
-        <v>38</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="2">
-        <v>39</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
@@ -2366,229 +2432,245 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <v>42</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="10">
-        <v>41</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10" t="s">
+      <c r="I49" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="10">
+        <v>43</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10" t="s">
+      <c r="E50" s="10"/>
+      <c r="F50" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="11" t="s">
+      <c r="G50" s="10"/>
+      <c r="H50" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I48" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="8">
-        <v>42</v>
-      </c>
-      <c r="C49" s="8" t="s">
+      <c r="I50" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="8">
+        <v>44</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="2">
-        <v>43</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <v>45</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="2">
-        <v>44</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>46</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2" t="s">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3" t="s">
+      <c r="G53" s="2"/>
+      <c r="H53" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="10">
-        <v>45</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="10" t="s">
+      <c r="I53" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="10">
+        <v>47</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10" t="s">
+      <c r="E54" s="10"/>
+      <c r="F54" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="8">
-        <v>46</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="G54" s="10"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="8">
+        <v>48</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
+      <c r="E55" s="8"/>
+      <c r="F55" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="2">
-        <v>47</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
+        <v>49</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="B55" s="2">
-        <v>48</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
+      <c r="G56" s="2"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
+        <v>50</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="3" t="s">
+      <c r="G57" s="2"/>
+      <c r="H57" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="10">
-        <v>49</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10" t="s">
+      <c r="I57" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="10">
+        <v>51</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10" t="s">
+      <c r="E58" s="10"/>
+      <c r="F58" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="11" t="s">
+      <c r="G58" s="10"/>
+      <c r="H58" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I58" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="8">
-        <v>50</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="8"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="2">
-        <v>51</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="2">
+    <row r="59" spans="2:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="8">
         <v>52</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="2"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="8"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
@@ -2807,9 +2889,7 @@
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="2">
-        <v>71</v>
-      </c>
+      <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2819,9 +2899,7 @@
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="2">
-        <v>72</v>
-      </c>
+      <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2831,9 +2909,7 @@
       <c r="I79" s="2"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="2">
-        <v>73</v>
-      </c>
+      <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2843,9 +2919,7 @@
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="2">
-        <v>74</v>
-      </c>
+      <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2855,9 +2929,7 @@
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="2">
-        <v>75</v>
-      </c>
+      <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2867,9 +2939,7 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="2">
-        <v>76</v>
-      </c>
+      <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2879,9 +2949,7 @@
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="2">
-        <v>77</v>
-      </c>
+      <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2891,9 +2959,7 @@
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="2">
-        <v>78</v>
-      </c>
+      <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2903,9 +2969,7 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" s="2">
-        <v>79</v>
-      </c>
+      <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2915,9 +2979,7 @@
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" s="2">
-        <v>80</v>
-      </c>
+      <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2927,9 +2989,7 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" s="2">
-        <v>81</v>
-      </c>
+      <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2939,9 +2999,7 @@
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" s="2">
-        <v>82</v>
-      </c>
+      <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -2951,9 +3009,7 @@
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="2">
-        <v>83</v>
-      </c>
+      <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -2963,9 +3019,7 @@
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="2">
-        <v>84</v>
-      </c>
+      <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -2975,9 +3029,7 @@
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" s="2">
-        <v>85</v>
-      </c>
+      <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -2987,9 +3039,7 @@
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" s="2">
-        <v>86</v>
-      </c>
+      <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -2999,9 +3049,7 @@
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B94" s="2">
-        <v>87</v>
-      </c>
+      <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3011,9 +3059,7 @@
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" s="2">
-        <v>88</v>
-      </c>
+      <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3023,9 +3069,7 @@
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B96" s="2">
-        <v>89</v>
-      </c>
+      <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3035,9 +3079,7 @@
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B97" s="2">
-        <v>90</v>
-      </c>
+      <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3047,10 +3089,30 @@
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="8"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="2"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="12"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" s="8"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B101" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3071,7 +3133,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3084,7 +3146,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
